--- a/acts_contractor.xlsx
+++ b/acts_contractor.xlsx
@@ -34,7 +34,7 @@
     <t>Начало периода</t>
   </si>
   <si>
-    <t>2026-02-01</t>
+    <t>2026-01-03</t>
   </si>
   <si>
     <t>Конец периода</t>
@@ -73,7 +73,7 @@
     <t>Номер машины</t>
   </si>
   <si>
-    <t>2026-02-02 11:42:47</t>
+    <t>2026-01-04 01:11:38</t>
   </si>
   <si>
     <t>826AZ15</t>
